--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -466,10 +466,10 @@
         <v>-0.9878293984259514</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.660420160029007</v>
+        <v>-2.660420160029011</v>
       </c>
       <c r="C3" t="n">
-        <v>1.625356627204098</v>
+        <v>1.625356627204095</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>3.192666118988619</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7751742038769169</v>
+        <v>0.7751742038769152</v>
       </c>
       <c r="C4" t="n">
         <v>6.651406545235218</v>
@@ -488,7 +488,7 @@
         <v>2.297066339775718</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3528074042908056</v>
+        <v>-0.3528074042908109</v>
       </c>
       <c r="C5" t="n">
         <v>5.829091448111672</v>
@@ -499,7 +499,7 @@
         <v>12.23133624177822</v>
       </c>
       <c r="B6" t="n">
-        <v>7.419317796697228</v>
+        <v>7.419317796697224</v>
       </c>
       <c r="C6" t="n">
         <v>17.84994294906403</v>
@@ -521,7 +521,7 @@
         <v>32.01806439534992</v>
       </c>
       <c r="B8" t="n">
-        <v>23.22282535482993</v>
+        <v>23.22282535482994</v>
       </c>
       <c r="C8" t="n">
         <v>40.99068958288314</v>
@@ -532,7 +532,7 @@
         <v>10.54277570472573</v>
       </c>
       <c r="B9" t="n">
-        <v>6.096931482366186</v>
+        <v>6.096931482366183</v>
       </c>
       <c r="C9" t="n">
         <v>15.65933170823446</v>
@@ -565,7 +565,7 @@
         <v>19.58144582751533</v>
       </c>
       <c r="B12" t="n">
-        <v>12.7410750751865</v>
+        <v>12.74107507518649</v>
       </c>
       <c r="C12" t="n">
         <v>26.85786811206327</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.581962077977387</v>
+        <v>5.581962077977389</v>
       </c>
       <c r="B15" t="n">
-        <v>1.954805351447396</v>
+        <v>1.954805351447387</v>
       </c>
       <c r="C15" t="n">
         <v>10.03282626901925</v>
@@ -609,7 +609,7 @@
         <v>12.18522357382657</v>
       </c>
       <c r="B16" t="n">
-        <v>7.250737860235286</v>
+        <v>7.250737860235282</v>
       </c>
       <c r="C16" t="n">
         <v>17.76119911868825</v>
@@ -634,7 +634,7 @@
         <v>0.9437541403388572</v>
       </c>
       <c r="C18" t="n">
-        <v>6.740150375611002</v>
+        <v>6.740150375611005</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>19.10652399361252</v>
       </c>
       <c r="C19" t="n">
-        <v>36.64373645699817</v>
+        <v>36.64373645699816</v>
       </c>
     </row>
     <row r="20">
@@ -653,7 +653,7 @@
         <v>15.51623197997989</v>
       </c>
       <c r="B20" t="n">
-        <v>9.726930552435427</v>
+        <v>9.726930552435423</v>
       </c>
       <c r="C20" t="n">
         <v>22.05367776997161</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.716344927440307</v>
+        <v>9.716344927440309</v>
       </c>
       <c r="B21" t="n">
-        <v>5.221819778891374</v>
+        <v>5.221819778891371</v>
       </c>
       <c r="C21" t="n">
         <v>14.97013235667459</v>
@@ -675,7 +675,7 @@
         <v>35.21073479764829</v>
       </c>
       <c r="B22" t="n">
-        <v>25.19327823764424</v>
+        <v>25.19327823764425</v>
       </c>
       <c r="C22" t="n">
         <v>45.01693674303914</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.316635282981524</v>
+        <v>7.316635282981526</v>
       </c>
       <c r="B23" t="n">
-        <v>3.445771602240379</v>
+        <v>3.445771602240372</v>
       </c>
       <c r="C23" t="n">
-        <v>12.31218134022461</v>
+        <v>12.3121813402246</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +697,7 @@
         <v>12.16216723985074</v>
       </c>
       <c r="B24" t="n">
-        <v>7.166447892004316</v>
+        <v>7.166447892004311</v>
       </c>
       <c r="C24" t="n">
         <v>17.71682720350035</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.92338416960072</v>
+        <v>8.923384169600721</v>
       </c>
       <c r="B25" t="n">
-        <v>5.027415072728056</v>
+        <v>5.027415072728054</v>
       </c>
       <c r="C25" t="n">
         <v>13.60183621296856</v>
@@ -719,7 +719,7 @@
         <v>9.80857026334361</v>
       </c>
       <c r="B26" t="n">
-        <v>5.558979651815259</v>
+        <v>5.558979651815255</v>
       </c>
       <c r="C26" t="n">
         <v>15.14762001742616</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.959083152082359</v>
+        <v>8.959083152082361</v>
       </c>
       <c r="B29" t="n">
-        <v>4.599577980109478</v>
+        <v>4.599577980109471</v>
       </c>
       <c r="C29" t="n">
         <v>14.41404875067839</v>
@@ -807,7 +807,7 @@
         <v>25.38133288005491</v>
       </c>
       <c r="B34" t="n">
-        <v>17.24618584873055</v>
+        <v>17.24618584873054</v>
       </c>
       <c r="C34" t="n">
         <v>33.94141352536029</v>
@@ -818,7 +818,7 @@
         <v>13.8276714429274</v>
       </c>
       <c r="B35" t="n">
-        <v>8.404544238104386</v>
+        <v>8.404544238104382</v>
       </c>
       <c r="C35" t="n">
         <v>19.86306652914203</v>
@@ -840,7 +840,7 @@
         <v>11.40490546449279</v>
       </c>
       <c r="B37" t="n">
-        <v>6.544206093222416</v>
+        <v>6.544206093222412</v>
       </c>
       <c r="C37" t="n">
         <v>17.16074359750416</v>
@@ -862,7 +862,7 @@
         <v>21.24695003059199</v>
       </c>
       <c r="B39" t="n">
-        <v>13.97917142128657</v>
+        <v>13.97917142128656</v>
       </c>
       <c r="C39" t="n">
         <v>29.00410743770495</v>
@@ -873,7 +873,7 @@
         <v>6.477561857190288</v>
       </c>
       <c r="B40" t="n">
-        <v>3.082786959615117</v>
+        <v>3.082786959615113</v>
       </c>
       <c r="C40" t="n">
         <v>10.8551413661428</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15.54970199942573</v>
+        <v>15.54970199942572</v>
       </c>
       <c r="B41" t="n">
         <v>10.40763754974692</v>
@@ -953,7 +953,7 @@
         <v>26.59995452020626</v>
       </c>
       <c r="C47" t="n">
-        <v>47.25191989905661</v>
+        <v>47.2519198990566</v>
       </c>
     </row>
     <row r="48">
@@ -961,7 +961,7 @@
         <v>19.62755849546698</v>
       </c>
       <c r="B48" t="n">
-        <v>12.90965501164844</v>
+        <v>12.90965501164843</v>
       </c>
       <c r="C48" t="n">
         <v>26.94661194243906</v>
@@ -972,7 +972,7 @@
         <v>4.765944986161976</v>
       </c>
       <c r="B49" t="n">
-        <v>1.676110677053105</v>
+        <v>1.676110677053101</v>
       </c>
       <c r="C49" t="n">
         <v>8.620158210125329</v>
@@ -983,7 +983,7 @@
         <v>11.35879279654114</v>
       </c>
       <c r="B50" t="n">
-        <v>6.375626156760475</v>
+        <v>6.37562615676047</v>
       </c>
       <c r="C50" t="n">
         <v>17.07199976712837</v>
@@ -994,7 +994,7 @@
         <v>-0.941716730474301</v>
       </c>
       <c r="B51" t="n">
-        <v>-2.491840223567065</v>
+        <v>-2.491840223567069</v>
       </c>
       <c r="C51" t="n">
         <v>1.714100457579882</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.628074745929037</v>
+        <v>5.628074745929041</v>
       </c>
       <c r="B54" t="n">
-        <v>2.123385287909336</v>
+        <v>2.123385287909329</v>
       </c>
       <c r="C54" t="n">
         <v>10.12157009939503</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.739401261416132</v>
+        <v>9.739401261416134</v>
       </c>
       <c r="B55" t="n">
-        <v>5.306109747122346</v>
+        <v>5.306109747122342</v>
       </c>
       <c r="C55" t="n">
         <v>15.01450427186248</v>
@@ -1060,7 +1060,7 @@
         <v>29.45696041306037</v>
       </c>
       <c r="B57" t="n">
-        <v>20.85674740056213</v>
+        <v>20.85674740056214</v>
       </c>
       <c r="C57" t="n">
         <v>38.02213516011791</v>
@@ -1071,7 +1071,7 @@
         <v>11.42796179846862</v>
       </c>
       <c r="B58" t="n">
-        <v>6.628496061453387</v>
+        <v>6.628496061453383</v>
       </c>
       <c r="C58" t="n">
         <v>17.20511551269205</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.247466281054047</v>
+        <v>7.24746628105405</v>
       </c>
       <c r="B60" t="n">
-        <v>3.192901697547466</v>
+        <v>3.192901697547459</v>
       </c>
       <c r="C60" t="n">
         <v>12.17906559466093</v>
@@ -1115,7 +1115,7 @@
         <v>24.51920312028785</v>
       </c>
       <c r="B62" t="n">
-        <v>16.79891123787431</v>
+        <v>16.79891123787432</v>
       </c>
       <c r="C62" t="n">
         <v>32.44000163609059</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.270522615029872</v>
+        <v>7.270522615029876</v>
       </c>
       <c r="B64" t="n">
-        <v>3.277191665778437</v>
+        <v>3.27719166577843</v>
       </c>
       <c r="C64" t="n">
         <v>12.22343750984882</v>
@@ -1159,7 +1159,7 @@
         <v>23.69277234300242</v>
       </c>
       <c r="B66" t="n">
-        <v>15.92379953439951</v>
+        <v>15.9237995343995</v>
       </c>
       <c r="C66" t="n">
         <v>31.75080228453072</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.11949347582906</v>
+        <v>22.11949347582907</v>
       </c>
       <c r="B67" t="n">
         <v>15.02286306122332</v>
@@ -1181,7 +1181,7 @@
         <v>8.050840724363647</v>
       </c>
       <c r="B68" t="n">
-        <v>3.983723432791304</v>
+        <v>3.983723432791299</v>
       </c>
       <c r="C68" t="n">
         <v>12.82389303103291</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.500618191166115</v>
+        <v>6.500618191166113</v>
       </c>
       <c r="B70" t="n">
-        <v>3.167076927846088</v>
+        <v>3.167076927846084</v>
       </c>
       <c r="C70" t="n">
         <v>10.89951328133069</v>
@@ -1225,7 +1225,7 @@
         <v>14.65410222021282</v>
       </c>
       <c r="B72" t="n">
-        <v>9.279655941579197</v>
+        <v>9.279655941579193</v>
       </c>
       <c r="C72" t="n">
         <v>20.55226588070191</v>
